--- a/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.2455815693022636</v>
+        <v>8.2455815152681566</v>
       </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>1.5181602188581556</v>
       </c>
       <c r="D2">
-        <v>7.3492728996184677</v>
+        <v>7.3492731834851615</v>
       </c>
       <c r="E2">
-        <v>6.2007466309964911</v>
+        <v>6.2007461998205153</v>
       </c>
       <c r="F2">
-        <v>19.089950534241858</v>
+        <v>19.089950255830331</v>
       </c>
       <c r="G2">
-        <v>1.4240214892100123</v>
+        <v>1.4240214238298994</v>
       </c>
       <c r="H2">
-        <v>17.805598933957185</v>
+        <v>17.805598407674829</v>
       </c>
       <c r="I2">
-        <v>0.81731989768898095</v>
+        <v>0.81731988651978149</v>
       </c>
       <c r="J2">
-        <v>2.144323261028835</v>
+        <v>2.1443230355309444</v>
       </c>
       <c r="K2">
-        <v>16.997434499299708</v>
+        <v>16.997434343459027</v>
       </c>
       <c r="L2">
-        <v>1.9557447867227165</v>
+        <v>1.9557446545184696</v>
       </c>
       <c r="M2">
-        <v>1.8693251982094534</v>
+        <v>1.8693251499413051</v>
       </c>
       <c r="N2">
-        <v>0.48832680193053923</v>
+        <v>0.48832679434429782</v>
       </c>
       <c r="O2">
-        <v>1.197156634472498</v>
+        <v>1.1971566353547023</v>
       </c>
       <c r="P2">
-        <v>0.73588520866753127</v>
+        <v>0.73588519742327962</v>
       </c>
       <c r="Q2">
-        <v>0.67607596157570404</v>
+        <v>0.67607595636238615</v>
       </c>
       <c r="R2">
-        <v>1.913458073895137</v>
+        <v>1.9134581246704694</v>
       </c>
       <c r="S2">
-        <v>14.005183842127952</v>
+        <v>14.005183669655835</v>
       </c>
       <c r="T2">
-        <v>6.9818826541055801</v>
+        <v>6.981882767636459</v>
       </c>
       <c r="U2">
-        <v>2.2007129739810907</v>
+        <v>2.2007125978153677</v>
       </c>
       <c r="V2">
-        <v>14.145551722315044</v>
+        <v>14.145551064139052</v>
       </c>
       <c r="W2">
-        <v>9.1571846565439987</v>
+        <v>9.1571844346414704</v>
       </c>
       <c r="X2">
-        <v>2.0091017637266253</v>
+        <v>2.0091014646254841</v>
       </c>
       <c r="Y2">
-        <v>0.87052229503385914</v>
+        <v>0.87052224747104767</v>
       </c>
       <c r="AA2">
-        <v>7.7847831622668808</v>
+        <v>7.7847814576420076</v>
       </c>
       <c r="AB2">
-        <v>0.97726789799035496</v>
+        <v>0.97726791477162733</v>
       </c>
       <c r="AC2">
-        <v>18.236220523851376</v>
+        <v>18.236220203204162</v>
       </c>
       <c r="AD2">
-        <v>2.4241261664040743</v>
+        <v>2.4241261584665859</v>
       </c>
       <c r="AE2">
-        <v>11.708437350750215</v>
+        <v>11.708436701877078</v>
       </c>
       <c r="AF2">
-        <v>1.43008446988192</v>
+        <v>1.4300844358527853</v>
       </c>
       <c r="AG2">
-        <v>23.34850733940582</v>
+        <v>23.348508701790458</v>
       </c>
       <c r="AH2">
-        <v>0.9146123444134332</v>
+        <v>0.91461240906839048</v>
       </c>
       <c r="AI2">
-        <v>2.1548145972044095</v>
+        <v>2.1548145058014527</v>
       </c>
       <c r="AJ2">
-        <v>6.804627595406906</v>
+        <v>6.8046271753242804</v>
       </c>
       <c r="AK2">
-        <v>1.8711237256663522</v>
+        <v>1.8711236792844677</v>
       </c>
       <c r="AL2">
-        <v>4.7621105644073518</v>
+        <v>4.7621103259496511</v>
       </c>
       <c r="AM2">
-        <v>0.42589093681751661</v>
+        <v>0.425890916456372</v>
       </c>
       <c r="AN2">
-        <v>1.0810840756712019</v>
+        <v>1.0810840941366469</v>
       </c>
       <c r="AO2">
-        <v>2.2749119383014325</v>
+        <v>2.2749120318319789</v>
       </c>
       <c r="AP2">
-        <v>0.35597509542911532</v>
+        <v>0.35597507629213332</v>
       </c>
       <c r="AQ2">
-        <v>2.0743980223562652</v>
+        <v>2.0743975788486257</v>
       </c>
       <c r="AR2">
-        <v>6.9503710940749572</v>
+        <v>6.950370857459653</v>
       </c>
       <c r="AS2">
-        <v>11.983751782949685</v>
+        <v>11.983750902274473</v>
       </c>
       <c r="AT2">
-        <v>1.107228356246579</v>
+        <v>1.1072282293258497</v>
       </c>
       <c r="AU2">
-        <v>14.810509863651054</v>
+        <v>14.810509708537634</v>
       </c>
       <c r="AV2">
-        <v>7.7319735220013017</v>
+        <v>7.731973408697189</v>
       </c>
       <c r="AW2">
-        <v>0.36602833069105151</v>
+        <v>0.36602831682306253</v>
       </c>
       <c r="AX2">
-        <v>0.61531595285132035</v>
+        <v>0.61531596535057609</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>15.717855166511745</v>
       </c>
       <c r="C3">
-        <v>1.0464922848551534</v>
+        <v>1.0464923569027336</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>2.2257217377871363</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>12.642427073234092</v>
       </c>
       <c r="F3">
-        <v>3.2022288027902115</v>
+        <v>3.2022287190448608</v>
       </c>
       <c r="G3">
-        <v>1.4184726087834396</v>
+        <v>1.4184725821481472</v>
       </c>
       <c r="H3">
-        <v>8.9912367319331068</v>
+        <v>8.9912366284382621</v>
       </c>
       <c r="I3">
-        <v>0.81049855385200242</v>
+        <v>0.81049856385512198</v>
       </c>
       <c r="J3">
-        <v>2.706789161487626</v>
+        <v>2.7067892517004219</v>
       </c>
       <c r="K3">
-        <v>8.0509502774274306</v>
+        <v>8.0509503149806143</v>
       </c>
       <c r="L3">
-        <v>1.5140763413443978</v>
+        <v>1.5140763380018101</v>
       </c>
       <c r="M3">
-        <v>2.3078823773009693</v>
+        <v>2.3080494568085923</v>
       </c>
       <c r="N3">
-        <v>1.5369248642630922</v>
+        <v>1.5369245927528954</v>
       </c>
       <c r="O3">
-        <v>1.9833559064655522</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="P3">
-        <v>0.53212170411515181</v>
+        <v>0.53212170169419892</v>
       </c>
       <c r="Q3">
-        <v>0.37592063674006732</v>
+        <v>0.37592062796803083</v>
       </c>
       <c r="R3">
-        <v>5.8038103478401517</v>
+        <v>5.803810009943482</v>
       </c>
       <c r="S3">
-        <v>6.8127429171075562</v>
+        <v>6.8127429808191478</v>
       </c>
       <c r="T3">
-        <v>1.7364988408222672</v>
+        <v>1.7364986718568169</v>
       </c>
       <c r="U3">
-        <v>1.2172997873364579</v>
+        <v>1.2172997879807834</v>
       </c>
       <c r="V3">
-        <v>9.2255737855831992</v>
+        <v>9.2255737893746481</v>
       </c>
       <c r="W3">
-        <v>1.4533612546705603</v>
+        <v>1.4533613188206502</v>
       </c>
       <c r="X3">
-        <v>0.63817814827434405</v>
+        <v>0.638178149827901</v>
       </c>
       <c r="Y3">
-        <v>0.69965873451788718</v>
+        <v>0.69965872520241068</v>
       </c>
       <c r="AA3">
-        <v>2.9957311894253493</v>
+        <v>2.995730977629345</v>
       </c>
       <c r="AB3">
-        <v>7.076461267135949</v>
+        <v>7.0764618434080848</v>
       </c>
       <c r="AC3">
-        <v>7.8584728417270586</v>
+        <v>7.8584722836583341</v>
       </c>
       <c r="AD3">
-        <v>2.8342696591739167</v>
+        <v>2.834269726098019</v>
       </c>
       <c r="AE3">
-        <v>4.8563717063866454</v>
+        <v>4.8563716559059866</v>
       </c>
       <c r="AF3">
-        <v>1.4681438488383738</v>
+        <v>1.4681438043189261</v>
       </c>
       <c r="AG3">
-        <v>10.518896470144039</v>
+        <v>10.51889558088185</v>
       </c>
       <c r="AH3">
-        <v>0.56601437014056599</v>
+        <v>0.56601436765972024</v>
       </c>
       <c r="AI3">
-        <v>3.2165803878270212</v>
+        <v>3.2165799792487517</v>
       </c>
       <c r="AJ3">
-        <v>6.6801983568363585</v>
+        <v>6.6801981518349125</v>
       </c>
       <c r="AK3">
-        <v>0.40229136452160252</v>
+        <v>0.40229136053853293</v>
       </c>
       <c r="AL3">
-        <v>5.0335704003962869</v>
+        <v>5.0335706499385502</v>
       </c>
       <c r="AM3">
-        <v>6.9989733340225824</v>
+        <v>6.9989719429577564</v>
       </c>
       <c r="AN3">
-        <v>5.049806066803102</v>
+        <v>5.0498057792531421</v>
       </c>
       <c r="AO3">
-        <v>1.5027491106618993</v>
+        <v>1.5027490410941469</v>
       </c>
       <c r="AP3">
-        <v>0.2273855580075633</v>
+        <v>0.2273855440264736</v>
       </c>
       <c r="AQ3">
-        <v>2.9011859526400423</v>
+        <v>2.9011858823799086</v>
       </c>
       <c r="AR3">
-        <v>4.7512788600722216</v>
+        <v>4.7512788652284685</v>
       </c>
       <c r="AS3">
-        <v>8.9367949224631715</v>
+        <v>8.9367946545958112</v>
       </c>
       <c r="AT3">
-        <v>0.51157022505203864</v>
+        <v>0.51157022552911313</v>
       </c>
       <c r="AU3">
-        <v>23.848896986815408</v>
+        <v>23.848898299002382</v>
       </c>
       <c r="AV3">
-        <v>5.151265801636943</v>
+        <v>5.1512655722167873</v>
       </c>
       <c r="AW3">
-        <v>1.5928295715229859</v>
+        <v>1.5928294157983358</v>
       </c>
       <c r="AX3">
-        <v>1.4875534578954714</v>
+        <v>1.4875534078375767</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>8.2455815152681566</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5181602188581556</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>7.3492731834851615</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.2007461998205153</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.089950255830331</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.4240214238298994</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.805598407674829</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.81731988651978149</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1443230355309444</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.997434343459027</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.9557446545184696</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.8693251499413051</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.48832679434429782</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.1971566353547023</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.73588519742327962</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.67607595636238615</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.9134581246704694</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>14.005183669655835</v>
@@ -585,55 +474,55 @@
         <v>0.87052224747104767</v>
       </c>
       <c r="AA2">
-        <v>7.7847814576420076</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.97726791477162733</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>18.236220203204162</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.4241261584665859</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.708436701877078</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.4300844358527853</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>23.348508701790458</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.91461240906839048</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.1548145058014527</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.8046271753242804</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.8711236792844677</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.7621103259496511</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.425890916456372</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.0810840941366469</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.2749120318319789</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.35597507629213332</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.0743975788486257</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>6.950370857459653</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.61531596535057609</v>
       </c>
+      <c r="AY2">
+        <v>4.1599138421197379</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>15.717855166511745</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.0464923569027336</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.2257217377871363</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>12.642427073234092</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.2022287190448608</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.4184725821481472</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.9912366284382621</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.81049856385512198</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.7067892517004219</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.0509503149806143</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5140763380018101</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.3080494568085923</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.5369245927528954</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.9833558962570397</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.53212170169419892</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.37592062796803083</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.803810009943482</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.8127429808191478</v>
@@ -734,55 +623,55 @@
         <v>0.69965872520241068</v>
       </c>
       <c r="AA3">
-        <v>2.995730977629345</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.0764618434080848</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.8584722836583341</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.834269726098019</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.8563716559059866</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.4681438043189261</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.51889558088185</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.56601436765972024</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.2165799792487517</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>6.6801981518349125</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.40229136053853293</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.0335706499385502</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.9989719429577564</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.0498057792531421</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.5027490410941469</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2273855440264736</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.9011858823799086</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>4.7512788652284685</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.4875534078375767</v>
+      </c>
+      <c r="AY3">
+        <v>2.2791237120178032</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.2455815693022636</v>
+        <v>0.71303677533663179</v>
       </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>1.9134581246704694</v>
       </c>
       <c r="D2">
-        <v>7.3786250841178411</v>
+        <v>1.0810840941366469</v>
       </c>
       <c r="E2">
-        <v>6.2007466309964911</v>
+        <v>2.0743975788486257</v>
       </c>
       <c r="F2">
         <v>19.089950534241858</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="C3">
-        <v>1.0464922848551534</v>
+        <v>5.803810009943482</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>5.0498057792531421</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>2.571109060183042</v>
       </c>
       <c r="F3">
         <v>3.2022288027902115</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8.2455815693022636</v>
-      </c>
       <c r="C2">
-        <v>1.5181599827288852</v>
+        <v>0.71303677533663179</v>
       </c>
       <c r="D2">
-        <v>7.3786250841178411</v>
+        <v>0.425890916456372</v>
       </c>
       <c r="E2">
-        <v>6.2007466309964911</v>
+        <v>1.0810840941366469</v>
       </c>
       <c r="F2">
         <v>19.089950534241858</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>15.717855985949233</v>
+        <v>1.5369245927528954</v>
       </c>
       <c r="C3">
-        <v>1.0464922848551534</v>
+        <v>1.9833558962570397</v>
       </c>
       <c r="D3">
-        <v>2.2257216785614498</v>
+        <v>6.9989719429577564</v>
       </c>
       <c r="E3">
-        <v>12.642426870110615</v>
+        <v>5.0498057792531421</v>
       </c>
       <c r="F3">
         <v>3.2022288027902115</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>8.2455815152681566</v>
+      </c>
       <c r="C2">
+        <v>1.5181602188581556</v>
+      </c>
+      <c r="D2">
+        <v>7.3786250412492311</v>
+      </c>
+      <c r="E2">
+        <v>6.2007461998205153</v>
+      </c>
+      <c r="F2">
+        <v>19.089950255830331</v>
+      </c>
+      <c r="G2">
+        <v>1.4240214238298994</v>
+      </c>
+      <c r="H2">
+        <v>17.805598407674829</v>
+      </c>
+      <c r="I2">
+        <v>0.81731988651978149</v>
+      </c>
+      <c r="J2">
+        <v>2.1443230355309444</v>
+      </c>
+      <c r="K2">
+        <v>16.997434343459027</v>
+      </c>
+      <c r="L2">
+        <v>1.9557446545184696</v>
+      </c>
+      <c r="M2">
+        <v>1.8693251499413051</v>
+      </c>
+      <c r="O2">
         <v>0.71303677533663179</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.73588519742327962</v>
+      </c>
+      <c r="Q2">
+        <v>0.67607595636238615</v>
+      </c>
+      <c r="R2">
+        <v>1.9134581246704694</v>
+      </c>
+      <c r="S2">
+        <v>14.005183669655835</v>
+      </c>
+      <c r="T2">
+        <v>7.1860094712477975</v>
+      </c>
+      <c r="U2">
+        <v>2.2007125978153677</v>
+      </c>
+      <c r="V2">
+        <v>14.145551064139052</v>
+      </c>
+      <c r="W2">
+        <v>9.1571844346414704</v>
+      </c>
+      <c r="X2">
+        <v>2.0091014646254841</v>
+      </c>
+      <c r="Y2">
+        <v>0.76500555303369921</v>
+      </c>
+      <c r="AA2">
+        <v>7.7847814576420076</v>
+      </c>
+      <c r="AB2">
+        <v>0.79919494437854366</v>
+      </c>
+      <c r="AC2">
+        <v>18.236220203204162</v>
+      </c>
+      <c r="AD2">
+        <v>2.4241261584665859</v>
+      </c>
+      <c r="AE2">
+        <v>11.708436701877078</v>
+      </c>
+      <c r="AF2">
+        <v>1.4300844358527853</v>
+      </c>
+      <c r="AG2">
+        <v>23.348508701790458</v>
+      </c>
+      <c r="AH2">
+        <v>0.95857003269756547</v>
+      </c>
+      <c r="AI2">
+        <v>2.1548145058014527</v>
+      </c>
+      <c r="AJ2">
+        <v>6.8046271753242804</v>
+      </c>
+      <c r="AK2">
+        <v>1.8711236792844677</v>
+      </c>
+      <c r="AL2">
+        <v>4.7621103259496511</v>
+      </c>
+      <c r="AM2">
         <v>0.425890916456372</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.0810840941366469</v>
       </c>
-      <c r="F2">
-        <v>19.089950534241858</v>
-      </c>
-      <c r="G2">
-        <v>1.4240214892100123</v>
-      </c>
-      <c r="H2">
-        <v>17.805598933957185</v>
-      </c>
-      <c r="I2">
-        <v>0.81731989768898095</v>
-      </c>
-      <c r="J2">
-        <v>2.144323261028835</v>
-      </c>
-      <c r="K2">
-        <v>16.997434499299708</v>
-      </c>
-      <c r="L2">
-        <v>1.9557447867227165</v>
-      </c>
-      <c r="M2">
-        <v>1.8693251982094534</v>
-      </c>
-      <c r="O2">
-        <v>0.71303684364113384</v>
-      </c>
-      <c r="P2">
-        <v>0.73588520866753127</v>
-      </c>
-      <c r="Q2">
-        <v>0.67607596157570404</v>
-      </c>
-      <c r="R2">
-        <v>1.913458073895137</v>
-      </c>
-      <c r="S2">
-        <v>14.005183842127952</v>
-      </c>
-      <c r="T2">
-        <v>7.186009559303832</v>
-      </c>
-      <c r="U2">
-        <v>2.2007129739810907</v>
-      </c>
-      <c r="V2">
-        <v>14.145551722315044</v>
-      </c>
-      <c r="W2">
-        <v>9.1571846565439987</v>
-      </c>
-      <c r="X2">
-        <v>2.0091017637266253</v>
-      </c>
-      <c r="Y2">
-        <v>0.76500558204901892</v>
-      </c>
-      <c r="AA2">
-        <v>7.7847831622668808</v>
-      </c>
-      <c r="AB2">
-        <v>0.79919498187901505</v>
-      </c>
-      <c r="AC2">
-        <v>18.236220523851376</v>
-      </c>
-      <c r="AD2">
-        <v>2.4241261664040743</v>
-      </c>
-      <c r="AE2">
-        <v>11.708437350750215</v>
-      </c>
-      <c r="AF2">
-        <v>1.43008446988192</v>
-      </c>
-      <c r="AG2">
-        <v>23.34850733940582</v>
-      </c>
-      <c r="AH2">
-        <v>0.95857010315180502</v>
-      </c>
-      <c r="AI2">
-        <v>2.1548145972044095</v>
-      </c>
-      <c r="AJ2">
-        <v>6.804627595406906</v>
-      </c>
-      <c r="AK2">
-        <v>1.8711237256663522</v>
-      </c>
-      <c r="AL2">
-        <v>4.7621105644073518</v>
-      </c>
-      <c r="AM2">
-        <v>0.42589093681751661</v>
-      </c>
-      <c r="AN2">
-        <v>1.0810840756712019</v>
-      </c>
       <c r="AO2">
-        <v>2.2749119383014325</v>
+        <v>2.2749120318319789</v>
       </c>
       <c r="AP2">
-        <v>0.3209168241449108</v>
+        <v>0.32091681009808809</v>
       </c>
       <c r="AQ2">
-        <v>2.0743980223562652</v>
+        <v>2.0743975788486257</v>
       </c>
       <c r="AR2">
-        <v>6.9503710940749572</v>
+        <v>6.950370857459653</v>
       </c>
       <c r="AS2">
-        <v>11.983751782949685</v>
+        <v>11.983750902274473</v>
       </c>
       <c r="AT2">
-        <v>1.107228356246579</v>
+        <v>1.1072282293258497</v>
       </c>
       <c r="AU2">
-        <v>14.810509863651054</v>
+        <v>14.810509708537634</v>
       </c>
       <c r="AV2">
-        <v>7.7319735220013017</v>
+        <v>7.731973408697189</v>
       </c>
       <c r="AW2">
-        <v>0.36602833069105151</v>
+        <v>0.36602831682306253</v>
       </c>
       <c r="AX2">
-        <v>0.61531595285130758</v>
+        <v>0.61531596535057775</v>
       </c>
       <c r="AY2">
-        <v>4.1599139669866219</v>
+        <v>4.1599138421197379</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>15.717855166511745</v>
+      </c>
+      <c r="C3">
+        <v>1.0464923569027336</v>
+      </c>
+      <c r="D3">
+        <v>2.2257217377871363</v>
+      </c>
+      <c r="E3">
+        <v>12.642427073234092</v>
+      </c>
+      <c r="F3">
+        <v>3.2022287190448608</v>
+      </c>
+      <c r="G3">
+        <v>1.4184725821481472</v>
+      </c>
+      <c r="H3">
+        <v>8.9912366284382621</v>
+      </c>
+      <c r="I3">
+        <v>1.153511242789977</v>
+      </c>
+      <c r="J3">
+        <v>2.7067892517004219</v>
+      </c>
+      <c r="K3">
+        <v>8.0509503149806143</v>
+      </c>
+      <c r="L3">
+        <v>1.5140763380018101</v>
+      </c>
+      <c r="M3">
+        <v>2.3080494568085923</v>
+      </c>
+      <c r="N3">
         <v>1.5369245927528954</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.9833558962570397</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.53212170169419892</v>
+      </c>
+      <c r="Q3">
+        <v>0.37592062796803083</v>
+      </c>
+      <c r="R3">
+        <v>5.803810009943482</v>
+      </c>
+      <c r="S3">
+        <v>8.4854092056899724</v>
+      </c>
+      <c r="T3">
+        <v>1.5063640515378924</v>
+      </c>
+      <c r="U3">
+        <v>1.2172997879807834</v>
+      </c>
+      <c r="V3">
+        <v>9.2255737893746481</v>
+      </c>
+      <c r="W3">
+        <v>1.4584447067841801</v>
+      </c>
+      <c r="X3">
+        <v>0.638178149827901</v>
+      </c>
+      <c r="Y3">
+        <v>0.69965872520241068</v>
+      </c>
+      <c r="AA3">
+        <v>2.995730977629345</v>
+      </c>
+      <c r="AB3">
+        <v>7.0764618434080848</v>
+      </c>
+      <c r="AC3">
+        <v>5.5185099422051005</v>
+      </c>
+      <c r="AD3">
+        <v>2.834269726098019</v>
+      </c>
+      <c r="AE3">
+        <v>4.8563716559059866</v>
+      </c>
+      <c r="AF3">
+        <v>1.4681438043189283</v>
+      </c>
+      <c r="AG3">
+        <v>10.51889558088185</v>
+      </c>
+      <c r="AH3">
+        <v>0.12290157678848901</v>
+      </c>
+      <c r="AI3">
+        <v>3.2165799792487517</v>
+      </c>
+      <c r="AJ3">
+        <v>6.6801981518349125</v>
+      </c>
+      <c r="AK3">
+        <v>0.40229136053853293</v>
+      </c>
+      <c r="AL3">
+        <v>5.0335706499385502</v>
+      </c>
+      <c r="AM3">
         <v>6.9989719429577564</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.0498057792531421</v>
       </c>
-      <c r="F3">
-        <v>3.2022288027902115</v>
-      </c>
-      <c r="G3">
-        <v>1.4184726087834396</v>
-      </c>
-      <c r="H3">
-        <v>8.9912367319331068</v>
-      </c>
-      <c r="I3">
-        <v>1.1535112280562616</v>
-      </c>
-      <c r="J3">
-        <v>2.706789161487626</v>
-      </c>
-      <c r="K3">
-        <v>8.0509502774274306</v>
-      </c>
-      <c r="L3">
-        <v>1.5140763413443978</v>
-      </c>
-      <c r="M3">
-        <v>2.3078823773009693</v>
-      </c>
-      <c r="N3">
-        <v>1.5369248642630922</v>
-      </c>
-      <c r="O3">
-        <v>1.9833559064655522</v>
-      </c>
-      <c r="P3">
-        <v>0.53212170411515181</v>
-      </c>
-      <c r="Q3">
-        <v>0.37592063674006732</v>
-      </c>
-      <c r="R3">
-        <v>5.8038103478401517</v>
-      </c>
-      <c r="S3">
-        <v>8.4854090407408442</v>
-      </c>
-      <c r="T3">
-        <v>1.5063642091520775</v>
-      </c>
-      <c r="U3">
-        <v>1.2172997873364579</v>
-      </c>
-      <c r="V3">
-        <v>9.2255737855831992</v>
-      </c>
-      <c r="W3">
-        <v>1.4584445131676373</v>
-      </c>
-      <c r="X3">
-        <v>0.63817814827434405</v>
-      </c>
-      <c r="Y3">
-        <v>0.69965873451788718</v>
-      </c>
-      <c r="AA3">
-        <v>2.9957311894253493</v>
-      </c>
-      <c r="AB3">
-        <v>7.076461267135949</v>
-      </c>
-      <c r="AC3">
-        <v>5.5185104790081461</v>
-      </c>
-      <c r="AD3">
-        <v>2.8342696591739167</v>
-      </c>
-      <c r="AE3">
-        <v>4.8563717063866454</v>
-      </c>
-      <c r="AF3">
-        <v>1.468143848838362</v>
-      </c>
-      <c r="AG3">
-        <v>10.518896470144039</v>
-      </c>
-      <c r="AH3">
-        <v>0.12290157948826592</v>
-      </c>
-      <c r="AI3">
-        <v>3.2165803878270212</v>
-      </c>
-      <c r="AJ3">
-        <v>6.6801983568363585</v>
-      </c>
-      <c r="AK3">
-        <v>0.40229136452160252</v>
-      </c>
-      <c r="AL3">
-        <v>5.0335704003962869</v>
-      </c>
-      <c r="AM3">
-        <v>6.9989733340225824</v>
-      </c>
-      <c r="AN3">
-        <v>5.049806066803102</v>
-      </c>
       <c r="AO3">
-        <v>1.5027491106618993</v>
+        <v>1.5027490410941469</v>
       </c>
       <c r="AP3">
-        <v>0.27204211020747177</v>
+        <v>0.27204208446675804</v>
       </c>
       <c r="AQ3">
-        <v>2.5711091434167379</v>
+        <v>2.571109060183042</v>
       </c>
       <c r="AR3">
-        <v>4.7512788600722216</v>
+        <v>4.7512788652284685</v>
       </c>
       <c r="AS3">
-        <v>8.9367949224631715</v>
+        <v>8.9367946545958112</v>
       </c>
       <c r="AT3">
-        <v>0.51157022505203864</v>
+        <v>0.51157022552911313</v>
       </c>
       <c r="AU3">
-        <v>23.848896986815408</v>
+        <v>23.848898299002382</v>
       </c>
       <c r="AV3">
-        <v>5.151265801636943</v>
+        <v>5.1512655722167873</v>
       </c>
       <c r="AW3">
-        <v>1.5928295715229859</v>
+        <v>1.5928294157983358</v>
       </c>
       <c r="AX3">
-        <v>1.4875534578954714</v>
+        <v>1.4875534078375767</v>
       </c>
       <c r="AY3">
-        <v>2.2791240104630304</v>
+        <v>2.2791237120178032</v>
       </c>
     </row>
   </sheetData>
